--- a/tests/local_ref.xlsx
+++ b/tests/local_ref.xlsx
@@ -81,7 +81,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -90,6 +90,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -474,408 +477,408 @@
   <dimension ref="A1:BN37"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="16.14" customWidth="1" style="3" min="1" max="1"/>
-    <col width="15.05" customWidth="1" style="3" min="2" max="2"/>
-    <col width="31.68" customWidth="1" style="4" min="3" max="3"/>
-    <col width="42" customWidth="1" style="3" min="4" max="4"/>
-    <col width="42" customWidth="1" style="5" min="5" max="5"/>
-    <col width="42" customWidth="1" style="5" min="6" max="6"/>
-    <col width="42" customWidth="1" style="5" min="7" max="7"/>
-    <col width="42" customWidth="1" style="5" min="8" max="8"/>
-    <col width="42" customWidth="1" style="5" min="9" max="9"/>
-    <col width="42" customWidth="1" style="5" min="10" max="10"/>
-    <col width="42" customWidth="1" style="5" min="11" max="11"/>
-    <col width="42" customWidth="1" style="5" min="12" max="12"/>
-    <col width="42" customWidth="1" style="5" min="13" max="13"/>
-    <col width="42" customWidth="1" style="5" min="14" max="14"/>
-    <col width="42" customWidth="1" style="5" min="15" max="15"/>
-    <col width="42" customWidth="1" style="5" min="16" max="16"/>
-    <col width="42" customWidth="1" style="5" min="17" max="17"/>
-    <col width="42" customWidth="1" style="5" min="18" max="18"/>
-    <col width="42" customWidth="1" style="5" min="19" max="19"/>
-    <col width="42" customWidth="1" style="5" min="20" max="20"/>
-    <col width="42" customWidth="1" style="5" min="21" max="21"/>
-    <col width="42" customWidth="1" style="5" min="22" max="22"/>
-    <col width="42" customWidth="1" style="5" min="23" max="23"/>
-    <col width="42" customWidth="1" style="5" min="24" max="24"/>
-    <col width="42" customWidth="1" style="5" min="25" max="25"/>
-    <col width="42" customWidth="1" style="5" min="26" max="26"/>
-    <col width="42" customWidth="1" style="5" min="27" max="27"/>
-    <col width="42" customWidth="1" style="5" min="28" max="28"/>
-    <col width="42" customWidth="1" style="5" min="29" max="29"/>
-    <col width="42" customWidth="1" style="5" min="30" max="30"/>
-    <col width="42" customWidth="1" style="5" min="31" max="31"/>
-    <col width="42" customWidth="1" style="5" min="32" max="32"/>
-    <col width="42" customWidth="1" style="5" min="33" max="33"/>
-    <col width="42" customWidth="1" style="5" min="34" max="34"/>
-    <col width="42" customWidth="1" style="5" min="35" max="35"/>
-    <col width="42" customWidth="1" style="5" min="36" max="36"/>
-    <col width="42" customWidth="1" style="5" min="37" max="37"/>
-    <col width="42" customWidth="1" style="5" min="38" max="38"/>
-    <col width="42" customWidth="1" style="5" min="39" max="39"/>
-    <col width="42" customWidth="1" style="5" min="40" max="40"/>
-    <col width="42" customWidth="1" style="5" min="41" max="41"/>
-    <col width="42" customWidth="1" style="5" min="42" max="42"/>
-    <col width="42" customWidth="1" style="5" min="43" max="43"/>
-    <col width="42" customWidth="1" style="5" min="44" max="44"/>
-    <col width="42" customWidth="1" style="5" min="45" max="45"/>
-    <col width="42" customWidth="1" style="5" min="46" max="46"/>
-    <col width="42" customWidth="1" style="5" min="47" max="47"/>
-    <col width="42" customWidth="1" style="5" min="48" max="48"/>
-    <col width="42" customWidth="1" style="5" min="49" max="49"/>
-    <col width="42" customWidth="1" style="5" min="50" max="50"/>
-    <col width="42" customWidth="1" style="5" min="51" max="51"/>
-    <col width="42" customWidth="1" style="5" min="52" max="52"/>
-    <col width="42" customWidth="1" style="5" min="53" max="53"/>
-    <col width="42" customWidth="1" style="5" min="54" max="54"/>
-    <col width="42" customWidth="1" style="5" min="55" max="55"/>
-    <col width="42" customWidth="1" style="5" min="56" max="56"/>
-    <col width="42" customWidth="1" style="5" min="57" max="57"/>
-    <col width="42" customWidth="1" style="5" min="58" max="58"/>
-    <col width="42" customWidth="1" style="5" min="59" max="59"/>
-    <col width="42" customWidth="1" style="5" min="60" max="60"/>
-    <col width="42" customWidth="1" style="5" min="61" max="61"/>
-    <col width="42" customWidth="1" style="5" min="62" max="62"/>
-    <col width="42" customWidth="1" style="5" min="63" max="63"/>
-    <col width="42" customWidth="1" style="5" min="64" max="64"/>
-    <col width="42" customWidth="1" style="5" min="65" max="65"/>
-    <col width="42" customWidth="1" style="5" min="66" max="66"/>
+    <col width="16.14" customWidth="1" style="4" min="1" max="1"/>
+    <col width="15.05" customWidth="1" style="4" min="2" max="2"/>
+    <col width="31.68" customWidth="1" style="5" min="3" max="3"/>
+    <col width="42" customWidth="1" style="4" min="4" max="4"/>
+    <col width="42" customWidth="1" style="6" min="5" max="5"/>
+    <col width="42" customWidth="1" style="6" min="6" max="6"/>
+    <col width="42" customWidth="1" style="6" min="7" max="7"/>
+    <col width="42" customWidth="1" style="6" min="8" max="8"/>
+    <col width="42" customWidth="1" style="6" min="9" max="9"/>
+    <col width="42" customWidth="1" style="6" min="10" max="10"/>
+    <col width="42" customWidth="1" style="6" min="11" max="11"/>
+    <col width="42" customWidth="1" style="6" min="12" max="12"/>
+    <col width="42" customWidth="1" style="6" min="13" max="13"/>
+    <col width="42" customWidth="1" style="6" min="14" max="14"/>
+    <col width="42" customWidth="1" style="6" min="15" max="15"/>
+    <col width="42" customWidth="1" style="6" min="16" max="16"/>
+    <col width="42" customWidth="1" style="6" min="17" max="17"/>
+    <col width="42" customWidth="1" style="6" min="18" max="18"/>
+    <col width="42" customWidth="1" style="6" min="19" max="19"/>
+    <col width="42" customWidth="1" style="6" min="20" max="20"/>
+    <col width="42" customWidth="1" style="6" min="21" max="21"/>
+    <col width="42" customWidth="1" style="6" min="22" max="22"/>
+    <col width="42" customWidth="1" style="6" min="23" max="23"/>
+    <col width="42" customWidth="1" style="6" min="24" max="24"/>
+    <col width="42" customWidth="1" style="6" min="25" max="25"/>
+    <col width="42" customWidth="1" style="6" min="26" max="26"/>
+    <col width="42" customWidth="1" style="6" min="27" max="27"/>
+    <col width="42" customWidth="1" style="6" min="28" max="28"/>
+    <col width="42" customWidth="1" style="6" min="29" max="29"/>
+    <col width="42" customWidth="1" style="6" min="30" max="30"/>
+    <col width="42" customWidth="1" style="6" min="31" max="31"/>
+    <col width="42" customWidth="1" style="6" min="32" max="32"/>
+    <col width="42" customWidth="1" style="6" min="33" max="33"/>
+    <col width="42" customWidth="1" style="6" min="34" max="34"/>
+    <col width="42" customWidth="1" style="6" min="35" max="35"/>
+    <col width="42" customWidth="1" style="6" min="36" max="36"/>
+    <col width="42" customWidth="1" style="6" min="37" max="37"/>
+    <col width="42" customWidth="1" style="6" min="38" max="38"/>
+    <col width="42" customWidth="1" style="6" min="39" max="39"/>
+    <col width="42" customWidth="1" style="6" min="40" max="40"/>
+    <col width="42" customWidth="1" style="6" min="41" max="41"/>
+    <col width="42" customWidth="1" style="6" min="42" max="42"/>
+    <col width="42" customWidth="1" style="6" min="43" max="43"/>
+    <col width="42" customWidth="1" style="6" min="44" max="44"/>
+    <col width="42" customWidth="1" style="6" min="45" max="45"/>
+    <col width="42" customWidth="1" style="6" min="46" max="46"/>
+    <col width="42" customWidth="1" style="6" min="47" max="47"/>
+    <col width="42" customWidth="1" style="6" min="48" max="48"/>
+    <col width="42" customWidth="1" style="6" min="49" max="49"/>
+    <col width="42" customWidth="1" style="6" min="50" max="50"/>
+    <col width="42" customWidth="1" style="6" min="51" max="51"/>
+    <col width="42" customWidth="1" style="6" min="52" max="52"/>
+    <col width="42" customWidth="1" style="6" min="53" max="53"/>
+    <col width="42" customWidth="1" style="6" min="54" max="54"/>
+    <col width="42" customWidth="1" style="6" min="55" max="55"/>
+    <col width="42" customWidth="1" style="6" min="56" max="56"/>
+    <col width="42" customWidth="1" style="6" min="57" max="57"/>
+    <col width="42" customWidth="1" style="6" min="58" max="58"/>
+    <col width="42" customWidth="1" style="6" min="59" max="59"/>
+    <col width="42" customWidth="1" style="6" min="60" max="60"/>
+    <col width="42" customWidth="1" style="6" min="61" max="61"/>
+    <col width="42" customWidth="1" style="6" min="62" max="62"/>
+    <col width="42" customWidth="1" style="6" min="63" max="63"/>
+    <col width="42" customWidth="1" style="6" min="64" max="64"/>
+    <col width="42" customWidth="1" style="6" min="65" max="65"/>
+    <col width="42" customWidth="1" style="6" min="66" max="66"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="5">
-      <c r="D1" s="6" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="6">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>[sm] Título</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>[sm] Autor</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>[sm] Editor</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>[sm] Fecha de pub.</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>[sm] Descripción física</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="7" t="inlineStr">
         <is>
           <t>[sm] Información de ejemplar</t>
         </is>
       </c>
-      <c r="J1" s="6" t="inlineStr">
+      <c r="J1" s="7" t="inlineStr">
         <is>
           <t>[sm] Título uniforme</t>
         </is>
       </c>
-      <c r="K1" s="6" t="inlineStr">
+      <c r="K1" s="7" t="inlineStr">
         <is>
           <t>[sm] Frecuencia actual</t>
         </is>
       </c>
-      <c r="L1" s="6" t="inlineStr">
+      <c r="L1" s="7" t="inlineStr">
         <is>
           <t>[sm] Lugar/Ed./Año</t>
         </is>
       </c>
-      <c r="M1" s="6" t="inlineStr">
+      <c r="M1" s="7" t="inlineStr">
         <is>
           <t>[sm] Numeración</t>
         </is>
       </c>
-      <c r="N1" s="6" t="inlineStr">
+      <c r="N1" s="7" t="inlineStr">
         <is>
           <t>[sm] Índices</t>
         </is>
       </c>
-      <c r="O1" s="6" t="inlineStr">
+      <c r="O1" s="7" t="inlineStr">
         <is>
           <t>[sm] N. al tit. y men. res.</t>
         </is>
       </c>
-      <c r="P1" s="6" t="inlineStr">
+      <c r="P1" s="7" t="inlineStr">
         <is>
           <t>[sm] Materias</t>
         </is>
       </c>
-      <c r="Q1" s="6" t="inlineStr">
+      <c r="Q1" s="7" t="inlineStr">
         <is>
           <t>[sm] Es suplemento</t>
         </is>
       </c>
-      <c r="R1" s="6" t="inlineStr">
+      <c r="R1" s="7" t="inlineStr">
         <is>
           <t>[sm] Otra edición</t>
         </is>
       </c>
-      <c r="S1" s="6" t="inlineStr">
+      <c r="S1" s="7" t="inlineStr">
         <is>
           <t>[sm] Absorbió a</t>
         </is>
       </c>
-      <c r="T1" s="6" t="inlineStr">
+      <c r="T1" s="7" t="inlineStr">
         <is>
           <t>[sm] Colecciones</t>
         </is>
       </c>
-      <c r="U1" s="6" t="inlineStr">
+      <c r="U1" s="7" t="inlineStr">
         <is>
           <t>[sm] Existencias</t>
         </is>
       </c>
-      <c r="V1" s="6" t="inlineStr">
+      <c r="V1" s="7" t="inlineStr">
         <is>
           <t>[sm] Suplementos</t>
         </is>
       </c>
-      <c r="W1" s="6" t="inlineStr">
+      <c r="W1" s="7" t="inlineStr">
         <is>
           <t>[sm] Enlaces</t>
         </is>
       </c>
-      <c r="X1" s="6" t="inlineStr">
+      <c r="X1" s="7" t="inlineStr">
         <is>
           <t>[sm] Frecuencia anterior</t>
         </is>
       </c>
-      <c r="Y1" s="6" t="inlineStr">
+      <c r="Y1" s="7" t="inlineStr">
         <is>
           <t>[sm] Notas</t>
         </is>
       </c>
-      <c r="Z1" s="6" t="inlineStr">
+      <c r="Z1" s="7" t="inlineStr">
         <is>
           <t>[sm] Publicación principal</t>
         </is>
       </c>
-      <c r="AA1" s="6" t="inlineStr">
+      <c r="AA1" s="7" t="inlineStr">
         <is>
           <t>[sm] Bibliografía</t>
         </is>
       </c>
-      <c r="AB1" s="6" t="inlineStr">
+      <c r="AB1" s="7" t="inlineStr">
         <is>
           <t>[sm] Depósito Legal</t>
         </is>
       </c>
-      <c r="AC1" s="6" t="inlineStr">
+      <c r="AC1" s="7" t="inlineStr">
         <is>
           <t>[sm] ISBN</t>
         </is>
       </c>
-      <c r="AD1" s="6" t="inlineStr">
+      <c r="AD1" s="7" t="inlineStr">
         <is>
           <t>[sm] Edición</t>
         </is>
       </c>
-      <c r="AE1" s="6" t="inlineStr">
+      <c r="AE1" s="7" t="inlineStr">
         <is>
           <t>[sm] Referencias</t>
         </is>
       </c>
-      <c r="AF1" s="6" t="inlineStr">
+      <c r="AF1" s="7" t="inlineStr">
         <is>
           <t>[sm] Autores</t>
         </is>
       </c>
-      <c r="AG1" s="6" t="inlineStr">
+      <c r="AG1" s="7" t="inlineStr">
         <is>
           <t>[sm] Contiene</t>
         </is>
       </c>
-      <c r="AH1" s="6" t="inlineStr">
+      <c r="AH1" s="7" t="inlineStr">
         <is>
           <t>[sm] Intérpretes</t>
         </is>
       </c>
-      <c r="AI1" s="6" t="inlineStr">
+      <c r="AI1" s="7" t="inlineStr">
         <is>
           <t>[sm] Signatura</t>
         </is>
       </c>
-      <c r="AJ1" s="6" t="inlineStr">
+      <c r="AJ1" s="7" t="inlineStr">
         <is>
           <t>[sm] Museo</t>
         </is>
       </c>
-      <c r="AK1" s="6" t="inlineStr">
+      <c r="AK1" s="7" t="inlineStr">
         <is>
           <t>[sm] Inventario</t>
         </is>
       </c>
-      <c r="AL1" s="6" t="inlineStr">
+      <c r="AL1" s="7" t="inlineStr">
         <is>
           <t>[sm] Clasificación Genérica</t>
         </is>
       </c>
-      <c r="AM1" s="6" t="inlineStr">
+      <c r="AM1" s="7" t="inlineStr">
         <is>
           <t>[sm] Objeto/Documento</t>
         </is>
       </c>
-      <c r="AN1" s="6" t="inlineStr">
+      <c r="AN1" s="7" t="inlineStr">
         <is>
           <t>[sm] Conjunto</t>
         </is>
       </c>
-      <c r="AO1" s="6" t="inlineStr">
+      <c r="AO1" s="7" t="inlineStr">
         <is>
           <t>[sm] Materia/Soporte</t>
         </is>
       </c>
-      <c r="AP1" s="6" t="inlineStr">
+      <c r="AP1" s="7" t="inlineStr">
         <is>
           <t>[sm] Técnica</t>
         </is>
       </c>
-      <c r="AQ1" s="6" t="inlineStr">
+      <c r="AQ1" s="7" t="inlineStr">
         <is>
           <t>[sm] Dimensiones</t>
         </is>
       </c>
-      <c r="AR1" s="6" t="inlineStr">
+      <c r="AR1" s="7" t="inlineStr">
         <is>
           <t>[sm] Descripción</t>
         </is>
       </c>
-      <c r="AS1" s="6" t="inlineStr">
+      <c r="AS1" s="7" t="inlineStr">
         <is>
           <t>[sm] Datación</t>
         </is>
       </c>
-      <c r="AT1" s="6" t="inlineStr">
+      <c r="AT1" s="7" t="inlineStr">
         <is>
           <t>[sm] Contexto Cultural/Estilo</t>
         </is>
       </c>
-      <c r="AU1" s="6" t="inlineStr">
+      <c r="AU1" s="7" t="inlineStr">
         <is>
           <t>[sm] Lugar de Producción/Ceca</t>
         </is>
       </c>
-      <c r="AV1" s="6" t="inlineStr">
+      <c r="AV1" s="7" t="inlineStr">
         <is>
           <t>[sm] Uso/función</t>
         </is>
       </c>
-      <c r="AW1" s="6" t="inlineStr">
+      <c r="AW1" s="7" t="inlineStr">
         <is>
           <t>[sm] Lugar de Procedencia</t>
         </is>
       </c>
-      <c r="AX1" s="6" t="inlineStr">
+      <c r="AX1" s="7" t="inlineStr">
         <is>
           <t>[sm] Lugar Específico/Yacimiento</t>
         </is>
       </c>
-      <c r="AY1" s="6" t="inlineStr">
+      <c r="AY1" s="7" t="inlineStr">
         <is>
           <t>[sm] Clasificación Razonada</t>
         </is>
       </c>
-      <c r="AZ1" s="6" t="inlineStr">
+      <c r="AZ1" s="7" t="inlineStr">
         <is>
           <t>[sm] Fecha de Ingreso</t>
         </is>
       </c>
-      <c r="BA1" s="6" t="inlineStr">
+      <c r="BA1" s="7" t="inlineStr">
         <is>
           <t>[sm] Catalogación</t>
         </is>
       </c>
-      <c r="BB1" s="6" t="inlineStr">
+      <c r="BB1" s="7" t="inlineStr">
         <is>
           <t>[sm] [vacío]</t>
         </is>
       </c>
-      <c r="BC1" s="6" t="inlineStr">
+      <c r="BC1" s="7" t="inlineStr">
         <is>
           <t>[sm] Fecha inicial</t>
         </is>
       </c>
-      <c r="BD1" s="6" t="inlineStr">
+      <c r="BD1" s="7" t="inlineStr">
         <is>
           <t>[sm] Fecha final</t>
         </is>
       </c>
-      <c r="BE1" s="6" t="inlineStr">
+      <c r="BE1" s="7" t="inlineStr">
         <is>
           <t>[sm] Condiciones de acceso</t>
         </is>
       </c>
-      <c r="BF1" s="6" t="inlineStr">
+      <c r="BF1" s="7" t="inlineStr">
         <is>
           <t>[sm] Bibliografia</t>
         </is>
       </c>
-      <c r="BG1" s="6" t="inlineStr">
+      <c r="BG1" s="7" t="inlineStr">
         <is>
           <t>[sm] Notas de descripción</t>
         </is>
       </c>
-      <c r="BH1" s="6" t="inlineStr">
+      <c r="BH1" s="7" t="inlineStr">
         <is>
           <t>[sm] Personas</t>
         </is>
       </c>
-      <c r="BI1" s="6" t="inlineStr">
+      <c r="BI1" s="7" t="inlineStr">
         <is>
           <t>[sm] Lugares</t>
         </is>
       </c>
-      <c r="BJ1" s="6" t="inlineStr">
+      <c r="BJ1" s="7" t="inlineStr">
         <is>
           <t>[sm] Instituciones</t>
         </is>
       </c>
-      <c r="BK1" s="6" t="inlineStr">
+      <c r="BK1" s="7" t="inlineStr">
         <is>
           <t>[sm] Entidades</t>
         </is>
       </c>
-      <c r="BL1" s="6" t="inlineStr">
+      <c r="BL1" s="7" t="inlineStr">
         <is>
           <t>[sm] N. área desc. fis.</t>
         </is>
       </c>
-      <c r="BM1" s="6" t="inlineStr">
+      <c r="BM1" s="7" t="inlineStr">
         <is>
           <t>[sm] N. sobre ilustrac.</t>
         </is>
       </c>
-      <c r="BN1" s="6" t="inlineStr">
+      <c r="BN1" s="7" t="inlineStr">
         <is>
           <t>[sm] Otras notas</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="5">
-      <c r="A2" s="3" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="6">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>invasion</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>polish</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>file:///./html/http___catalogo_bne_es_uhtbin_cgisirsi_x_0_0_57_5_3_searchdata1_1935433_CKEY__searchfield1_GENERAL_SUBJECT_GENERAL___user_id_WEBSERVER.html</t>
         </is>
@@ -911,18 +914,18 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="5">
-      <c r="A3" s="3" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="6">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>captivate</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>fabricate</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>file:///./html/http___catalogo_bne_es_uhtbin_cgisirsi_x_0_0_57_5_3_searchdata1_4517155_CKEY__searchfield1_GENERAL_SUBJECT_GENERAL___user_id_WEBSERVER.html</t>
         </is>
@@ -958,18 +961,18 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="5">
-      <c r="A4" s="3" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="6">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>storage</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>affair</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>file:///./html/http___catalogo_bne_es_uhtbin_cgisirsi_x_0_0_57_5_3_searchdata1_5430888_CKEY__searchfield1_GENERAL_SUBJECT_GENERAL___user_id_WEBSERVER.html</t>
         </is>
@@ -1005,18 +1008,18 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="5">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="6">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>separation</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>shoot</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>file:///./html/http___catalogo_bne_es_uhtbin_cgisirsi_x_0_0_57_5_3_searchdata1_553803_CKEY__searchfield1_GENERAL_SUBJECT_GENERAL___user_id_WEBSERVER.html</t>
         </is>
@@ -1047,20 +1050,20 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="5">
-      <c r="A6" s="3" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="6">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>trade</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>financial</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>file:///./html/http___catalogos_munimadrid_es_cgi_bin_hemeroteca_TITN_19245.html</t>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>file:///./html/http___catalogos_madrid_es_cgi_bin_hemeroteca_TITN_19245.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1134,20 +1137,20 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="5">
-      <c r="A7" s="3" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="6">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>mill</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>move</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>file:///./html/http___catalogos_munimadrid_es_cgi_bin_hemeroteca_TITN_339474.html</t>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>file:///./html/http___catalogos_madrid_es_cgi_bin_hemeroteca_TITN_339474.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1201,15 +1204,15 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="5">
-      <c r="A8" s="3" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="6">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>document</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>file:///./html/http___catalogos_munimadrid_es_cgi_bin_hemeroteca_TITN_52686.html</t>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>file:///./html/http___catalogos_madrid_es_cgi_bin_hemeroteca_TITN_52686.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1283,10 +1286,10 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="5">
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>file:///./html/http___catalogos_munimadrid_es_cgi_bin_historica_TITN_553774.html</t>
+    <row r="9" ht="15" customHeight="1" s="6">
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>file:///./html/http___catalogos_madrid_es_cgi_bin_historica_TITN_553774.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1335,15 +1338,15 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="5">
-      <c r="A10" s="3" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="6">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>hate</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>file:///./html/http___catalogos_munimadrid_es_cgi_bin_historica_TITN_571997.html</t>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>file:///./html/http___catalogos_madrid_es_cgi_bin_historica_TITN_571997.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1377,15 +1380,15 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="5">
-      <c r="A11" s="3" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="6">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>pursuit</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>file:///./html/http___catalogos_munimadrid_es_cgi_bin_historica_TITN_579528.html</t>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>file:///./html/http___catalogos_madrid_es_cgi_bin_historica_TITN_579528.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1424,15 +1427,15 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="5">
-      <c r="A12" s="3" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="6">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>receipt</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>file:///./html/http___catalogos_munimadrid_es_cgi_bin_opacmusical_TITN_334532.html</t>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>file:///./html/http___catalogos_madrid_es_cgi_bin_opacmusical_TITN_334532.html</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1481,15 +1484,15 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="5">
-      <c r="A13" s="3" t="inlineStr">
+    <row r="13" ht="15" customHeight="1" s="6">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>definite</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>file:///./html/http___catalogos_munimadrid_es_cgi_bin_opacmusical_TITN_85931.html</t>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>file:///./html/http___catalogos_madrid_es_cgi_bin_opacmusical_TITN_85931.html</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1538,18 +1541,18 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="5">
-      <c r="A14" s="3" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="6">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>haunt</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>manner</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>file:///./html/http___ceres_mcu_es_pages_Main_idt_134248_inventary_DE2016_1_24_table_FMUS_museum_MOM.html</t>
         </is>
@@ -1650,18 +1653,18 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="5">
-      <c r="A15" s="3" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="6">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>launch</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>cause</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>file:///./html/http___ceres_mcu_es_pages_Main_idt_134254_inventary_DE2016_1_26_table_FMUS_museum_MOM.html</t>
         </is>
@@ -1757,18 +1760,18 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="5">
-      <c r="A16" s="3" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="6">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>commission</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>appeal</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>file:///./html/http___ceres_mcu_es_pages_Main_idt_134256_inventary_DE2016_1_31_table_FMUS_museum_MOM.html</t>
         </is>
@@ -1864,13 +1867,13 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="5">
-      <c r="B17" s="3" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="6">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>aspect</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>file:///./html/https___catalogoarchivo_madrid_es_ms_opac_doc_q_recordIdentifier_1_433461.html</t>
         </is>
@@ -1931,18 +1934,18 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="5">
-      <c r="A18" s="3" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="6">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>blow</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>security</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>file:///./html/https___catalogoarchivo_madrid_es_ms_opac_doc_q_recordIdentifier_1_433505.html</t>
         </is>
@@ -1998,18 +2001,18 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="5">
-      <c r="A19" s="3" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="6">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>feather</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>raid</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>file:///./html/https___catalogoarchivo_madrid_es_ms_opac_doc_q_recordIdentifier_1_433521.html</t>
         </is>
@@ -2065,18 +2068,18 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="5">
-      <c r="A20" s="3" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="6">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>compact</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>room</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>file:///./html/https___catalogos_madrid_es_cgi_bin_hemeroteca_TITN_421918.html</t>
         </is>
@@ -2122,13 +2125,13 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="5">
-      <c r="A21" s="4" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="6">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>boom</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>file:///./html/https___catalogos_madrid_es_cgi_bin_historica_TITN_358445.html</t>
         </is>
@@ -2194,18 +2197,18 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="5">
-      <c r="A22" s="3" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="6">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>moon</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>file:///./html/https___catalogos_madrid_es_cgi_bin_opacmusical_TITN_217501.html</t>
         </is>
@@ -2261,18 +2264,18 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="5">
-      <c r="A23" s="3" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="6">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>crystal</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>taste</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>file:///./html/https___catalogos_madrid_es_cgi_bin_opacmusical_TITN_235493.html</t>
         </is>
@@ -2323,18 +2326,18 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="5">
-      <c r="A24" s="3" t="inlineStr">
+    <row r="24" ht="15" customHeight="1" s="6">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>breast</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>apathy</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>file:///./html/https___catalogos_madrid_es_cgi_bin_opacmusical_TITN_250210.html</t>
         </is>
@@ -2375,87 +2378,87 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="5">
-      <c r="A25" s="3" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="6">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>champion</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>forge</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="5">
-      <c r="A26" s="3" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="6">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>mail</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>speculate</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="5">
-      <c r="A27" s="3" t="inlineStr">
+    <row r="27" ht="15" customHeight="1" s="6">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>colleague</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>shark</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="5">
-      <c r="B28" s="3" t="inlineStr">
+    <row r="28" ht="15" customHeight="1" s="6">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>motorcycle</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="5">
-      <c r="B29" s="3" t="inlineStr">
+    <row r="29" ht="15" customHeight="1" s="6">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>diamond</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="5">
-      <c r="B30" s="3" t="inlineStr">
+    <row r="30" ht="15" customHeight="1" s="6">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>pleasant</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="5">
-      <c r="B31" s="3" t="inlineStr">
+    <row r="31" ht="15" customHeight="1" s="6">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>salt</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="5">
-      <c r="B32" s="7" t="n"/>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="5">
-      <c r="B33" s="7" t="n"/>
-    </row>
-    <row r="34" ht="15" customHeight="1" s="5">
-      <c r="B34" s="7" t="n"/>
-    </row>
-    <row r="35" ht="15" customHeight="1" s="5">
-      <c r="B35" s="7" t="n"/>
-    </row>
-    <row r="36" ht="15" customHeight="1" s="5">
-      <c r="B36" s="7" t="n"/>
+    <row r="32" ht="15" customHeight="1" s="6">
+      <c r="B32" s="8" t="n"/>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="6">
+      <c r="B33" s="8" t="n"/>
+    </row>
+    <row r="34" ht="15" customHeight="1" s="6">
+      <c r="B34" s="8" t="n"/>
+    </row>
+    <row r="35" ht="15" customHeight="1" s="6">
+      <c r="B35" s="8" t="n"/>
+    </row>
+    <row r="36" ht="15" customHeight="1" s="6">
+      <c r="B36" s="8" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="7" t="n"/>
+      <c r="B37" s="8" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
